--- a/data/trans_orig/P6519-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB01D37-8697-4701-BF21-8EDB4815C3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E55CC64-CB78-48D0-ABD2-4FF12B7ED407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{681F1C48-F0E9-405C-A750-A9202ABB5CAF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DF413A1-210A-4535-97FB-A515246DBFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,25 +74,28 @@
     <t>93,86%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>87,82%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -101,28 +104,28 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -131,10 +134,10 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -143,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -161,619 +164,613 @@
     <t>1,0%</t>
   </si>
   <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDFB454-CF48-4E7A-9060-AF7D8060EB91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9793BAAE-5D6D-4745-9D36-D80130A76089}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -1363,13 +1360,13 @@
         <v>5600</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -1378,13 +1375,13 @@
         <v>11936</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -1393,19 +1390,19 @@
         <v>17536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -1414,13 +1411,13 @@
         <v>3469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1429,13 +1426,13 @@
         <v>1060</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -1444,19 +1441,19 @@
         <v>4529</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -1465,13 +1462,13 @@
         <v>1773</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1480,13 +1477,13 @@
         <v>2722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1495,13 +1492,13 @@
         <v>4495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1513,13 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -1531,13 +1528,13 @@
         <v>139676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -1546,18 +1543,18 @@
         <v>316246</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1566,13 @@
         <v>478028</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>277</v>
@@ -1584,13 +1581,13 @@
         <v>291068</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>731</v>
@@ -1599,19 +1596,19 @@
         <v>769096</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>43</v>
@@ -1620,13 +1617,13 @@
         <v>46373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -1635,13 +1632,13 @@
         <v>33757</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -1650,19 +1647,19 @@
         <v>80130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>17</v>
@@ -1671,13 +1668,13 @@
         <v>17699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1686,13 +1683,13 @@
         <v>14672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -1701,19 +1698,19 @@
         <v>32372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -1722,13 +1719,13 @@
         <v>10752</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1737,13 +1734,13 @@
         <v>999</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -1752,13 +1749,13 @@
         <v>11751</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1770,13 @@
         <v>552851</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>322</v>
@@ -1788,13 +1785,13 @@
         <v>340496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>846</v>
@@ -1803,18 +1800,18 @@
         <v>893348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1826,13 +1823,13 @@
         <v>479466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -1841,13 +1838,13 @@
         <v>244066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>693</v>
@@ -1856,19 +1853,19 @@
         <v>723533</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>48</v>
@@ -1877,13 +1874,13 @@
         <v>46919</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -1892,13 +1889,13 @@
         <v>37992</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>84</v>
@@ -1907,19 +1904,19 @@
         <v>84912</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>20</v>
@@ -1928,13 +1925,13 @@
         <v>19777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1943,13 +1940,13 @@
         <v>13463</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -1958,19 +1955,19 @@
         <v>33240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -1979,13 +1976,13 @@
         <v>18537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1994,13 +1991,13 @@
         <v>4337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2009,13 +2006,13 @@
         <v>22874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2027,13 @@
         <v>564700</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>284</v>
@@ -2045,13 +2042,13 @@
         <v>299858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>830</v>
@@ -2060,18 +2057,18 @@
         <v>864559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2083,10 +2080,10 @@
         <v>354191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>122</v>
@@ -2125,7 +2122,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>51</v>
@@ -2176,7 +2173,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>19</v>
@@ -2203,10 +2200,10 @@
         <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -2215,19 +2212,19 @@
         <v>26025</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>6</v>
@@ -2236,13 +2233,13 @@
         <v>7227</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2251,13 +2248,13 @@
         <v>7862</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2266,13 +2263,13 @@
         <v>15089</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2284,13 @@
         <v>437260</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2302,13 +2299,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>569</v>
@@ -2317,18 +2314,18 @@
         <v>606993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2340,13 +2337,13 @@
         <v>147238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -2355,13 +2352,13 @@
         <v>51837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>199</v>
@@ -2370,19 +2367,19 @@
         <v>199074</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -2391,13 +2388,13 @@
         <v>10283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2406,13 +2403,13 @@
         <v>3983</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2421,19 +2418,19 @@
         <v>14266</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -2484,7 +2481,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
@@ -2496,10 +2493,10 @@
         <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -2508,13 +2505,13 @@
         <v>4446</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -2523,13 +2520,13 @@
         <v>8284</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2541,13 @@
         <v>164215</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2559,13 +2556,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>229</v>
@@ -2574,18 +2571,18 @@
         <v>228498</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2597,13 +2594,13 @@
         <v>2627</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2612,13 +2609,13 @@
         <v>1777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2627,19 +2624,19 @@
         <v>4404</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -2648,13 +2645,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2663,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2678,19 +2675,19 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2699,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2714,13 +2711,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2729,19 +2726,19 @@
         <v>897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2750,13 +2747,13 @@
         <v>1592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2765,13 +2762,13 @@
         <v>947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2780,13 +2777,13 @@
         <v>2539</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2798,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2816,13 +2813,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2831,13 +2828,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2851,13 @@
         <v>1627279</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>817</v>
@@ -2869,13 +2866,13 @@
         <v>852811</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>2376</v>
@@ -2884,19 +2881,19 @@
         <v>2480090</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>160</v>
@@ -2905,13 +2902,13 @@
         <v>164816</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -2920,13 +2917,13 @@
         <v>104429</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>260</v>
@@ -2935,19 +2932,19 @@
         <v>269245</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>62</v>
@@ -2956,13 +2953,13 @@
         <v>64821</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -2971,13 +2968,13 @@
         <v>39115</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>99</v>
@@ -2986,19 +2983,19 @@
         <v>103936</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>39</v>
@@ -3007,13 +3004,13 @@
         <v>43719</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -3022,10 +3019,10 @@
         <v>21312</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>241</v>
@@ -3037,13 +3034,13 @@
         <v>65032</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3055,13 @@
         <v>1900635</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>975</v>
@@ -3073,13 +3070,13 @@
         <v>1017668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>2795</v>
@@ -3088,18 +3085,18 @@
         <v>2918303</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E55CC64-CB78-48D0-ABD2-4FF12B7ED407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896D0C50-7941-4471-8213-95599D61BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DF413A1-210A-4535-97FB-A515246DBFB2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22BD4BD9-5E84-4624-BEA9-7BC3D79EC099}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,703 +74,703 @@
     <t>93,86%</t>
   </si>
   <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>3,14%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1185,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9793BAAE-5D6D-4745-9D36-D80130A76089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7876171-4BEC-4699-87F4-8150097D6D94}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1671,10 +1671,10 @@
         <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1683,13 +1683,13 @@
         <v>14672</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -1698,13 +1698,13 @@
         <v>32372</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>10752</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>78</v>
@@ -1979,10 +1979,10 @@
         <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1991,13 +1991,13 @@
         <v>4337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2006,13 +2006,13 @@
         <v>22874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,7 +2068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2080,13 +2080,13 @@
         <v>354191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -2095,13 +2095,13 @@
         <v>140105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>464</v>
@@ -2110,13 +2110,13 @@
         <v>494296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2131,13 @@
         <v>54822</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2146,13 +2146,13 @@
         <v>16761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2161,13 +2161,13 @@
         <v>71583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>21020</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2197,13 +2197,13 @@
         <v>5005</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -2212,13 +2212,13 @@
         <v>26025</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2233,13 @@
         <v>7227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2248,13 +2248,13 @@
         <v>7862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2263,13 +2263,13 @@
         <v>15089</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,7 +2325,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2337,13 +2337,13 @@
         <v>147238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -2352,13 +2352,13 @@
         <v>51837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>199</v>
@@ -2367,13 +2367,13 @@
         <v>199074</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2388,13 @@
         <v>10283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2403,13 +2403,13 @@
         <v>3983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2418,13 +2418,13 @@
         <v>14266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>2855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2454,13 +2454,13 @@
         <v>4019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2469,13 +2469,13 @@
         <v>6874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2490,13 @@
         <v>3839</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -2505,13 +2505,13 @@
         <v>4446</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>8284</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,7 +2582,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2594,13 +2594,13 @@
         <v>2627</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2609,13 +2609,13 @@
         <v>1777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2624,13 +2624,13 @@
         <v>4404</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2645,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2663,10 +2663,10 @@
         <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2675,13 +2675,13 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,10 +2699,10 @@
         <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2711,13 +2711,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2726,13 +2726,13 @@
         <v>897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2747,13 @@
         <v>1592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2762,13 +2762,13 @@
         <v>947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2777,13 +2777,13 @@
         <v>2539</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2851,13 @@
         <v>1627279</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>817</v>
@@ -2866,13 +2866,13 @@
         <v>852811</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>2376</v>
@@ -2881,13 +2881,13 @@
         <v>2480090</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2902,13 @@
         <v>164816</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -2917,13 +2917,13 @@
         <v>104429</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>260</v>
@@ -2932,13 +2932,13 @@
         <v>269245</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2953,13 @@
         <v>64821</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -2971,10 +2971,10 @@
         <v>110</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>99</v>
@@ -2983,13 +2983,13 @@
         <v>103936</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3004,13 @@
         <v>43719</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -3019,10 +3019,10 @@
         <v>21312</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>241</v>

--- a/data/trans_orig/P6519-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896D0C50-7941-4471-8213-95599D61BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0874AB1-BB88-4691-9446-DB149BF60B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22BD4BD9-5E84-4624-BEA9-7BC3D79EC099}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19060D6F-8C73-47C0-A787-F50B2FBF3696}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,25 @@
     <t>93,86%</t>
   </si>
   <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>87,82%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,673 +101,679 @@
     <t>3,17%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1185,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7876171-4BEC-4699-87F4-8150097D6D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA27A1-2A0A-45E1-9AAA-D798F90671F4}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1345,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -1360,13 +1363,13 @@
         <v>5600</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -1375,13 +1378,13 @@
         <v>11936</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -1390,19 +1393,19 @@
         <v>17536</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -1411,13 +1414,13 @@
         <v>3469</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1426,13 +1429,13 @@
         <v>1060</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -1441,19 +1444,19 @@
         <v>4529</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -1462,13 +1465,13 @@
         <v>1773</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1477,13 +1480,13 @@
         <v>2722</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1492,13 +1495,13 @@
         <v>4495</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,13 +1516,13 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -1528,13 +1531,13 @@
         <v>139676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -1543,18 +1546,18 @@
         <v>316246</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1566,13 +1569,13 @@
         <v>478028</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>277</v>
@@ -1581,13 +1584,13 @@
         <v>291068</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>731</v>
@@ -1596,19 +1599,19 @@
         <v>769096</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>43</v>
@@ -1617,13 +1620,13 @@
         <v>46373</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -1632,13 +1635,13 @@
         <v>33757</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -1647,19 +1650,19 @@
         <v>80130</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>17</v>
@@ -1668,13 +1671,13 @@
         <v>17699</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1683,13 +1686,13 @@
         <v>14672</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -1698,19 +1701,19 @@
         <v>32372</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -1719,13 +1722,13 @@
         <v>10752</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1734,13 +1737,13 @@
         <v>999</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -1749,13 +1752,13 @@
         <v>11751</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1773,13 @@
         <v>552851</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>322</v>
@@ -1785,13 +1788,13 @@
         <v>340496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>846</v>
@@ -1800,18 +1803,18 @@
         <v>893348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1823,13 +1826,13 @@
         <v>479466</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -1838,13 +1841,13 @@
         <v>244066</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>693</v>
@@ -1853,19 +1856,19 @@
         <v>723533</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>48</v>
@@ -1874,13 +1877,13 @@
         <v>46919</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -1889,13 +1892,13 @@
         <v>37992</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>84</v>
@@ -1904,19 +1907,19 @@
         <v>84912</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>20</v>
@@ -1925,13 +1928,13 @@
         <v>19777</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1940,13 +1943,13 @@
         <v>13463</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -1955,19 +1958,19 @@
         <v>33240</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -1976,13 +1979,13 @@
         <v>18537</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1991,13 +1994,13 @@
         <v>4337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2006,13 +2009,13 @@
         <v>22874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2030,13 @@
         <v>564700</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>284</v>
@@ -2042,13 +2045,13 @@
         <v>299858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>830</v>
@@ -2057,18 +2060,18 @@
         <v>864559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2080,13 +2083,13 @@
         <v>354191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -2095,13 +2098,13 @@
         <v>140105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>464</v>
@@ -2110,19 +2113,19 @@
         <v>494296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>51</v>
@@ -2131,13 +2134,13 @@
         <v>54822</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2146,13 +2149,13 @@
         <v>16761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2161,19 +2164,19 @@
         <v>71583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>19</v>
@@ -2182,13 +2185,13 @@
         <v>21020</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2197,13 +2200,13 @@
         <v>5005</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -2212,19 +2215,19 @@
         <v>26025</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>6</v>
@@ -2233,13 +2236,13 @@
         <v>7227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2248,13 +2251,13 @@
         <v>7862</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2263,13 +2266,13 @@
         <v>15089</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2287,13 @@
         <v>437260</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2299,13 +2302,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>569</v>
@@ -2314,18 +2317,18 @@
         <v>606993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2337,13 +2340,13 @@
         <v>147238</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -2352,13 +2355,13 @@
         <v>51837</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>199</v>
@@ -2367,19 +2370,19 @@
         <v>199074</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -2388,13 +2391,13 @@
         <v>10283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2403,13 +2406,13 @@
         <v>3983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2418,19 +2421,19 @@
         <v>14266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -2439,13 +2442,13 @@
         <v>2855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2454,13 +2457,13 @@
         <v>4019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2469,19 +2472,19 @@
         <v>6874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
@@ -2490,13 +2493,13 @@
         <v>3839</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -2505,13 +2508,13 @@
         <v>4446</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -2520,13 +2523,13 @@
         <v>8284</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2544,13 @@
         <v>164215</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2556,13 +2559,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>229</v>
@@ -2571,18 +2574,18 @@
         <v>228498</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2594,13 +2597,13 @@
         <v>2627</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2609,13 +2612,13 @@
         <v>1777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2624,19 +2627,19 @@
         <v>4404</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -2645,13 +2648,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2660,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2675,19 +2678,19 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2696,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2711,13 +2714,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2726,19 +2729,19 @@
         <v>897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2747,13 +2750,13 @@
         <v>1592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2762,13 +2765,13 @@
         <v>947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2777,13 +2780,13 @@
         <v>2539</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2801,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2813,13 +2816,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2828,13 +2831,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2854,13 @@
         <v>1627279</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>817</v>
@@ -2866,13 +2869,13 @@
         <v>852811</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>2376</v>
@@ -2881,19 +2884,19 @@
         <v>2480090</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>160</v>
@@ -2902,13 +2905,13 @@
         <v>164816</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -2917,13 +2920,13 @@
         <v>104429</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>260</v>
@@ -2932,7 +2935,7 @@
         <v>269245</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>229</v>
@@ -2944,7 +2947,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>62</v>
@@ -2953,13 +2956,13 @@
         <v>64821</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -2968,13 +2971,13 @@
         <v>39115</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>99</v>
@@ -2983,19 +2986,19 @@
         <v>103936</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>39</v>
@@ -3004,13 +3007,13 @@
         <v>43719</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -3019,10 +3022,10 @@
         <v>21312</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>241</v>
@@ -3034,13 +3037,13 @@
         <v>65032</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3058,13 @@
         <v>1900635</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>975</v>
@@ -3070,13 +3073,13 @@
         <v>1017668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>2795</v>
@@ -3085,18 +3088,18 @@
         <v>2918303</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0874AB1-BB88-4691-9446-DB149BF60B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21380C95-35B5-4AA2-9AD6-D6862D75051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19060D6F-8C73-47C0-A787-F50B2FBF3696}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{22C755E9-E0B0-4E34-9ED4-6AF88E44EE87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="248">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -185,7 +185,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>86,47%</t>
@@ -290,7 +290,7 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>84,91%</t>
@@ -395,7 +395,7 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>81,0%</t>
@@ -506,7 +506,7 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>89,66%</t>
@@ -605,13 +605,10 @@
     <t>6,61%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -620,31 +617,25 @@
     <t>49,09%</t>
   </si>
   <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>26,42%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -653,16 +644,13 @@
     <t>77,17%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>26,15%</t>
@@ -671,10 +659,25 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>85,62%</t>
@@ -1188,8 +1191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA27A1-2A0A-45E1-9AAA-D798F90671F4}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287388E0-3973-401C-8E26-9920CDC8F46F}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2591,19 +2594,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2627</v>
+        <v>975</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2612,28 +2615,28 @@
         <v>1777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>4404</v>
+        <v>2752</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,16 +2645,16 @@
         <v>19</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>197</v>
@@ -2666,25 +2669,25 @@
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>819</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,10 +2705,10 @@
         <v>34</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2714,28 +2717,28 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,16 +2750,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2765,13 +2768,13 @@
         <v>947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2780,13 +2783,13 @@
         <v>2539</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,10 +2798,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -2825,10 +2828,10 @@
         <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -2842,55 +2845,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1559</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1627279</v>
+        <v>1652</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="H34" s="7">
-        <v>817</v>
-      </c>
-      <c r="I34" s="7">
-        <v>852811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M34" s="7">
-        <v>2376</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>2480090</v>
+        <v>1652</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2900,47 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>164816</v>
+        <v>819</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="H35" s="7">
-        <v>100</v>
-      </c>
-      <c r="I35" s="7">
-        <v>104429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>269245</v>
+        <v>819</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,49 +2949,47 @@
         <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>64821</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
-        <v>37</v>
-      </c>
-      <c r="I36" s="7">
-        <v>39115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>103936</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,49 +2998,47 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>43719</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
-        <v>21</v>
-      </c>
-      <c r="I37" s="7">
-        <v>21312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>65032</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,63 +3047,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1559</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1627279</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="7">
+        <v>817</v>
+      </c>
+      <c r="I39" s="7">
+        <v>852811</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2376</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2480090</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7">
+        <v>160</v>
+      </c>
+      <c r="D40" s="7">
+        <v>164816</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="7">
+        <v>100</v>
+      </c>
+      <c r="I40" s="7">
+        <v>104429</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" s="7">
+        <v>260</v>
+      </c>
+      <c r="N40" s="7">
+        <v>269245</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7">
+        <v>62</v>
+      </c>
+      <c r="D41" s="7">
+        <v>64821</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="7">
+        <v>37</v>
+      </c>
+      <c r="I41" s="7">
+        <v>39115</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M41" s="7">
+        <v>99</v>
+      </c>
+      <c r="N41" s="7">
+        <v>103936</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43719</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H42" s="7">
+        <v>21</v>
+      </c>
+      <c r="I42" s="7">
+        <v>21312</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M42" s="7">
+        <v>60</v>
+      </c>
+      <c r="N42" s="7">
+        <v>65032</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1820</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1900635</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>975</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1017668</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>2795</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2918303</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>246</v>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
